--- a/sprint_project.xlsx
+++ b/sprint_project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\S7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\S7\Pembelajaran Mesin\Tugas Besar\TugasPraktikumML_273-241\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048ED302-FB71-4810-9646-E17C30F02924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F885BC4A-730B-4759-85EC-B8A3831BBF98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{16C0C413-5D0F-49A1-9388-1774D60E2C3C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="31">
   <si>
     <t>Task</t>
   </si>
@@ -45,41 +45,86 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Database Design</t>
-  </si>
-  <si>
-    <t>Modelling</t>
-  </si>
-  <si>
-    <t>Model Inference</t>
-  </si>
-  <si>
-    <t>Model Evaluation</t>
-  </si>
-  <si>
-    <t>Prediction</t>
-  </si>
-  <si>
-    <t>Frontend Web</t>
-  </si>
-  <si>
-    <t>Backend Web</t>
-  </si>
-  <si>
-    <t>Deployment</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Preprocessing dataset</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Preprocessing dataset using SMOTE</t>
+  </si>
+  <si>
+    <t>Modelling ANN</t>
+  </si>
+  <si>
+    <t>Modelling CNN</t>
+  </si>
+  <si>
+    <t>Evaluasi ANN</t>
+  </si>
+  <si>
+    <t>Evaluasi CNN</t>
+  </si>
+  <si>
+    <t>Analisa Transfer Learning</t>
+  </si>
+  <si>
+    <t>Modelling Transfer Learning VGG16</t>
+  </si>
+  <si>
+    <t>Evaluasi Transfer Learning VGG16</t>
+  </si>
+  <si>
+    <t>Modelling Transfer Learning Resnet50</t>
+  </si>
+  <si>
+    <t>Evaluasi Transfer Learning Resnet50</t>
+  </si>
+  <si>
+    <t>Development Front-End Web</t>
+  </si>
+  <si>
+    <t>Configurasi Flask</t>
+  </si>
+  <si>
+    <t>Development Back-End Web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deployment </t>
+  </si>
+  <si>
+    <t>2-11-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>15-12-2021</t>
+  </si>
+  <si>
+    <t>18-12-2021</t>
+  </si>
+  <si>
+    <t>Wahyu</t>
+  </si>
+  <si>
+    <t>Zalfa</t>
+  </si>
+  <si>
+    <t>Colaborasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +141,18 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -142,12 +199,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,15 +521,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E099C9-CE73-4712-8F16-0D987A3002A8}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.85546875" customWidth="1"/>
@@ -502,103 +561,272 @@
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
